--- a/default-files/Example_ExcelReference/excel/沙盒/Localization/english/R任务列表_Quests_zyc_hotfix.xlsx
+++ b/default-files/Example_ExcelReference/excel/沙盒/Localization/english/R任务列表_Quests_zyc_hotfix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB302D91-A202-44ED-B73F-65FB35603651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7576B766-E189-4E44-8A18-299E70E01A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2097,9 +2097,6 @@
     <t>Encontre um mercador chamado Jihan na Fortaleza Redstone para coletar sua próxima missão de recompensa.</t>
   </si>
   <si>
-    <t>Vá ao desfiladeiro em Crying Rock e localize uma árvore estranha ao norte do posto avançado de West Crag e, em seguida, relate a Jihan em Redstone Keep.</t>
-  </si>
-  <si>
     <t>Fuja da masmorra dos Shujae.</t>
   </si>
   <si>
@@ -2122,9 +2119,6 @@
   </si>
   <si>
     <t>Você recebe o sinal de Badis. Laika está em movimento. Vá ajudá-lo.</t>
-  </si>
-  <si>
-    <t>Dirija-se ao canto sudeste mais distante das Montanhas Zagros e junte-se ao Circus of the Sands. Depois, elimine o Chefe Shujae.</t>
   </si>
   <si>
     <t>Malak informa que seu experimento estará concluído em um mês e solicita sua ajuda. Use esse período para aperfeiçoar suas habilidades.</t>
@@ -2203,9 +2197,6 @@
     <t>Vá para as Cavernas dos Ossos do Leviatã, perto da Vila Marfim. Fica ao sul das terras agrícolas da vila.</t>
   </si>
   <si>
-    <t>Vá para o Vazio da Lava Pāhoehoe naquela área estranha ao sul de Redstone Keep. Pode ser um pouco complicado chegar lá.</t>
-  </si>
-  <si>
     <t>Vá para a Formação do Gigante Zagros a sudoeste de Snowridge. A lenda diz que há um desfiladeiro se você seguir para o sul e depois para o oeste a partir de Snowridge. A formação fica no final deste desfiladeiro.</t>
   </si>
   <si>
@@ -2221,12 +2212,6 @@
     <t>Um homem foi gravemente ferido no Acampamento dos Bandidos perto de Fleur. Traga um médico de Fleur e leve-o ao acampamento para salvá-lo.</t>
   </si>
   <si>
-    <t>Conforme o desertor disse, há uma pedra azul em Crying Rock. Debaixo dela está o tesouro secreto do Velho Mundo - a Armadura Desert Ash.</t>
-  </si>
-  <si>
-    <t>Em Dunestorm, você encontra uma caravana a caminho do Camel Bell Bazaar e promete escoltá-los até o destino dentro de três dias.</t>
-  </si>
-  <si>
     <t>Você encontra uma jovem perto da área onde a serpente gigante foi vista pela última vez. Ela sugere que duas pequenas garrafas do Elixir da Rosa Branca podem ser suficientes para domar a serpente gigante</t>
   </si>
   <si>
@@ -2248,9 +2233,6 @@
     <t>Yaya se tornou uma pessoa muito mais forte depois de conhecer Ilham, mas...</t>
   </si>
   <si>
-    <t>Pouco depois que Ilham partiu, Yaya viajou sozinho para as Umbra Cliffs para encontrá-la.</t>
-  </si>
-  <si>
     <t>Ao longo dos anos, Yaya assumiu sua forma atual distorcida: mas agora, chegou a hora de ele resolver as contas com Noor!</t>
   </si>
   <si>
@@ -2290,22 +2272,7 @@
     <t>A filha do Pintor Errante se perdeu. Ele espera que você possa ajudar a encontrá-la e trazê-la de volta.</t>
   </si>
   <si>
-    <t>Vá para o local onde você encontrou o Pintor Errante em Crying Rock. Procure ao redor e veja se pode ajudar a trazer a filha dele de volta.</t>
-  </si>
-  <si>
     <t>Você conheceu duas crianças no Posto Avançado West Crag. Elas lhe entregaram uma garrafa estranha na esperança de que você pudesse jogá-la no Vazio da Lava Pāhoehoe para destruí-la.</t>
-  </si>
-  <si>
-    <t>Você comprou um cristal de um comerciante no Vale de Redstone. Ele disse que poderia transformar uma Dríade na Floresta dos Espelhos de volta à sua forma humana. Você está disposto a testar suas palavras viajando para a &lt;color=red&gt;Floresta dos Espelhos&lt;/color&gt; nas Umbra Cliffs.</t>
-  </si>
-  <si>
-    <t>Sua experiência na Floresta dos Espelhos prova que o cristal que o comerciante vendeu não passava de uma farsa. Localize-o e exija uma explicação! Talvez seja melhor perguntar aos guardas dentro de Redstone Keep sobre o paradeiro dele.</t>
-  </si>
-  <si>
-    <t>Você encontrou o comerciante em Crying Rock. Leve-o de volta para Redstone Keep e reivindique sua recompensa.</t>
-  </si>
-  <si>
-    <t>O comerciante lhe contou o paradeiro de uma Pedra Mítica das Maldições - em algum lugar a oeste das Umbra Cliffs. Você pode precisar perguntar por aí nas Umbra Cliffs para determinar sua localização exata.</t>
   </si>
   <si>
     <t>Inesperadamente, você obteve o Livro do Fogo, um antigo livro de magia Ifrit. A alma de seu autor, o Mestre Ifrit das Chamas, está selada em suas páginas. Colete os outros quatro fragmentos do livro e monte-o para libertar seu espírito e obter seus poderes. Procure por uma grande marca de energia perto de cada fragmento.</t>
@@ -2382,9 +2349,6 @@
     <t>Depois de derrotar Ghodja, você se lembra de Tandu. É hora de arrancar dele informações sobre o verdadeiro Spiritmancer.</t>
   </si>
   <si>
-    <t>Khaldun, um homem misterioso de cabelos brancos, lhe fala sobre um mestre arcano chamado Zarathustra. Se ele estiver correto, você encontrará Zarathustra dentro das Umbra Cliffs. A cidade mais próxima no penhasco é um lugar encantador chamado Fleur. Viajar até lá em busca de mais informações seria sábio.</t>
-  </si>
-  <si>
     <t>Parece que alguns moradores do leste de Fleur perderam a memória. Você só pode pensar em um culpado: um Spiritmancer.</t>
   </si>
   <si>
@@ -2442,32 +2406,16 @@
     <t>CLUE#[%tagrole:id%][=]冰谷女郎|[%tagrole:id%][=]驼铃集市女郎|[%tagrole:id%][=]黄金集市女郎|[%tagrole:id%][=]黑泥城女郎|[%tagrole:id%][=]风颖#[[yellow:O que acontece no Circo das Areias?]]#通用线索人物猎人帮会主线6</t>
   </si>
   <si>
-    <t>CLUE#[%tagrole:id%][=]风颖#[[yellow:Conheci um comerciante estranho perto de Redstone Keep...]]#通用线索霍翎支线1</t>
-  </si>
-  <si>
     <t>0#Investigar Uday#1##大雪山:2079,8554:0|北风镇瓦德争吵</t>
   </si>
   <si>
-    <t>0#Ir para uma vila ao norte do Qebui Keep#1##大雪山:2940,11024:0|trigger:琥珀银松村琥珀家门口</t>
-  </si>
-  <si>
     <t>0#Seguir Omar#1##大雪山:5594,9879:0|trigger:琥珀找到不远处的琥珀正在与怪物战斗</t>
   </si>
   <si>
     <t>4#Encontrar um Elixir do Gigante Alpino para Omar#1#雪山巨人药剂#大雪山:5594,9879:0</t>
   </si>
   <si>
-    <t>0#Ir para o Qebui Keep#1##大雪山:2372,8379:0</t>
-  </si>
-  <si>
     <t>0#Encontrar Omar#1##大雪山:2338,9105:0|trigger:北风镇宴会琥珀</t>
-  </si>
-  <si>
-    <t>0#Viajar para Redstone Keep e procurar "aquela pessoa"#1##沙盒红石城:-1190,520:1500|红石城拉克尔</t>
-  </si>
-  <si>
-    <t>0#Esperar sete dias#7
-0#Ir para a mina abandonada em Crying Rock#1##沙盒风哭岩:2953,5651:1200|trigger:野兽血脉主线进入废弃矿洞</t>
   </si>
   <si>
     <t>0#Encontrar Ouma#1##大雪山:10072,11659:1000|大雪山乌尤</t>
@@ -2492,31 +2440,15 @@
     <t>0#Falar com Yaksha no Vale dos Caçadores#1##沙盒双月山谷:-2802,3784:0|trigger:狩猎山谷入口</t>
   </si>
   <si>
-    <t>0#Ajudar o mago em Amaranth Town a encontrar seu vizinho#1##沙盒风哭岩:2446,-1359:3000|紫木镇失踪花妖</t>
-  </si>
-  <si>
     <t>4#Recuperar cinco Dentes de Lobo para Tausiq#5#狼牙#</t>
   </si>
   <si>
     <t>0#Recuperar suas memórias#1</t>
   </si>
   <si>
-    <t>0#Ir para Amaranth Town em Crying Rock#1##沙盒风哭岩:2327,8447:0|trigger:心灵巫师主线201</t>
-  </si>
-  <si>
-    <t>0#Encontrar seu velho amigo no canto sudeste de Amaranth Town#1##沙盒风哭岩:2327,8447:400|trigger:心灵巫师主线213</t>
-  </si>
-  <si>
     <t>0#Guarda a prisão à noite#1##沙盒风哭岩:2327,8447:400|trigger:心灵巫师主线218晚上战斗</t>
   </si>
   <si>
-    <t>4#Dê 1000 Utar para Hook Nose no sudoeste de Amaranth Town#1000#金钱#|三石堡腾越1</t>
-  </si>
-  <si>
-    <t>0#Esperar informações da Corsac Merchant's Guild#1
-0#Viajar para Dunestorm#1##大沙漠:-5896,87:0|trigger:沙风镇触发器</t>
-  </si>
-  <si>
     <t>0#Esperar dois dias antes de retornar a Dunestorm#1</t>
   </si>
   <si>
@@ -2524,9 +2456,6 @@
   </si>
   <si>
     <t>0#Ir para a Biblioteca Subterrânea em Diresprings#1##大沙漠:4305,3760:0|trigger:苦泉镇触发器</t>
-  </si>
-  <si>
-    <t>0#Viajar para o noroeste das Umbra Cliffs para Nagukka#1##沙盒黑崖花卉乡:-13346,2558:0|trigger:那古卡触发器</t>
   </si>
   <si>
     <t>0#Encontrar a casa de Zarathustra#1</t>
@@ -2539,12 +2468,6 @@
     <t>0#Partir de True Nagukka#1</t>
   </si>
   <si>
-    <t>0#Procurar por Jihan, o mercador, em Redstone Keep#1##沙盒红石城:-1211,1133:100|红石城古达</t>
-  </si>
-  <si>
-    <t>0#Depois de encontrar uma árvore estranha nos cânions de Crying Rock, volte para Redstone Keep e fale com Jihan.#1##沙盒风哭岩:-2876,-6343:0|trigger:猎人帮会主线301</t>
-  </si>
-  <si>
     <t>0#Ir para Sandedge Village#1##沙盒双月山谷:6194,-2377:0|trigger:半月山集市东南聚落</t>
   </si>
   <si>
@@ -2552,10 +2475,6 @@
   </si>
   <si>
     <t>0#Viajar para Precipice Camp#1##沙盒红石城:-545,3929:0|红石城北聚落雷毅</t>
-  </si>
-  <si>
-    <t>0#Ir para Camel Bell Bazaar#1|trigger:驼铃集市触发器
-0#Ganhar a confiança do Circus of the Sands#1##大沙漠:-702,-5570:100|驼铃集市蓝伊莎</t>
   </si>
   <si>
     <t>4#Encontrar uma Túnica de Mendigo#1#乞丐袍#大沙漠:343,-317:300|金沙表演团乞丐</t>
@@ -2671,12 +2590,6 @@
 0#Curar o desertor#1</t>
   </si>
   <si>
-    <t>0#Procurar a Armadura de Cinzas do Deserto em Crying Rock#1##沙盒风哭岩:-2455,7313:1000|trigger:灰烬战甲蓝石</t>
-  </si>
-  <si>
-    <t>0#Escoltar uma caravana de Dunestorm até Camel Bell Bazaar#1|PLACE:驼铃集市</t>
-  </si>
-  <si>
     <t>4#Levar duas garrafas de Elixir da Rosa Branca#2#白蔷薇秘药小#</t>
   </si>
   <si>
@@ -2708,18 +2621,10 @@
     <t>0#Derrotar o mago Noor#1</t>
   </si>
   <si>
-    <t>0#Encontrar a entrada em Crying Rock#1##沙盒风哭岩:-835,9342:200|trigger:提可沁主线101选择
-0#Encontrar as ervas#1</t>
-  </si>
-  <si>
     <t>0#Encontrar a entrada nas Montanhas de Zagros#1##大雪山:3089,-1648:200|trigger:提可沁主线103选择
 0#Encontrar as ervas#1</t>
   </si>
   <si>
-    <t>0#Encontrar a entrada nas Umbra Cliffs#1##沙盒黑崖花卉乡:-10670,-74:200|trigger:提可沁主线105选择
-0#Encontrar as ervas#1</t>
-  </si>
-  <si>
     <t>0#Ir para a localização especificada#1##大沙漠:5203,7078:300|trigger:西河娜娅主线102
 0#Completar a entrega1|北荒村村长</t>
   </si>
@@ -2751,15 +2656,9 @@
     <t>0#Ficar ao lado da lava no Vazio de Lava Pāhoehoe#1|PLACE:巨大熔岩空洞</t>
   </si>
   <si>
-    <t>0#Ir para a Floresta Mirage nas Umbra Cliffs#1##沙盒黑崖花卉乡:-4071,-12176:0|PLACE:林间幻境</t>
-  </si>
-  <si>
     <t>0#Encontrar o comerciante#1##沙盒红石城:-1471,611:500|PLACE:红石城</t>
   </si>
   <si>
-    <t>0#Retornar a Redstone Keep e entregar o mercador ganancioso#1##沙盒红石城:-2264,-461:0|雄鹰缉拿士兵</t>
-  </si>
-  <si>
     <t>0#Procurar a Pedra das Maldições#1##沙盒黑崖花卉乡:-12476,-5474:500</t>
   </si>
   <si>
@@ -2829,9 +2728,6 @@
     <t>0#Prosseguir com Oli até a casa de Ghodja#1##沙盒风哭岩:68,-4891:0|trigger:心灵女巫主线国锡住处</t>
   </si>
   <si>
-    <t>0#Conversar com Tandu em Amaranth Town#1##沙盒风哭岩:2330,8441:100|PLACE:紫木镇</t>
-  </si>
-  <si>
     <t>0#Perguntar aos moradores de Fleur sobre Zarathustra#1##沙盒黑崖花卉乡:-927,-1507:100|PLACE:花卉乡</t>
   </si>
   <si>
@@ -2845,9 +2741,6 @@
   </si>
   <si>
     <t>0#Derrotar Nadira#1##沙盒黑崖花卉乡:1773,-3022:0|trigger:心灵女巫主线东部悬崖</t>
-  </si>
-  <si>
-    <t>0#Ouvir os rumores locais na taverna do Frost Valley#1##大雪山:9940,8699:50|PLACE:冰谷</t>
   </si>
   <si>
     <t>0#Entrar na caverna de Shaitan com Ouda#1##大雪山:11766,10596:0
@@ -2857,20 +2750,127 @@
     <t>0#Procurar o monumento do General do Cavaleiro#1##沙盒黑崖花卉乡:-13600,-3094:0</t>
   </si>
   <si>
+    <t>0#Ouvir os rumores locais na taverna do Vale do Gelo#1##大雪山:9940,8699:50|PLACE:冰谷</t>
+  </si>
+  <si>
+    <t>Em Dunestorm, você encontra uma caravana a caminho do Bazar do Sino do Camelo e promete escoltá-los até o destino dentro de três dias.</t>
+  </si>
+  <si>
+    <t>0#Escoltar uma caravana de Dunestorm até Bazar do Sino do Camelo#1|PLACE:驼铃集市</t>
+  </si>
+  <si>
     <t>0#Controlar pelo menos 18 cidades#18
-0#Ocupar Redstone Keep#1
+0#Ocupar Bazar do Sino do Camelo#1
+0#Ocupar Vale do Gelo#1</t>
+  </si>
+  <si>
+    <t>0#Controlar pelo menos 18 cidades#18
+0#Ocupar Bazar do Sino do Camelo#1
+0#Ocupar Mireton#1
+0#Ocupar Vale do Gelo#1</t>
+  </si>
+  <si>
+    <t>0#Ir para Bazar do Sino do Camelo#1|trigger:驼铃集市触发器
+0#Ganhar a confiança do Circo das Areias#1##大沙漠:-702,-5570:100|驼铃集市蓝伊莎</t>
+  </si>
+  <si>
+    <t>Dirija-se ao canto sudeste mais distante das Montanhas Zagros e junte-se ao Circo das Areias. Depois, elimine o Chefe Shujae.</t>
+  </si>
+  <si>
+    <t>0#Viajar para Fortaleza de Pedra Vermelha e procurar "aquela pessoa"#1##沙盒红石城:-1190,520:1500|红石城拉克尔</t>
+  </si>
+  <si>
+    <t>0#Procurar por Jihan, o mercador, em Fortaleza de Pedra Vermelha#1##沙盒红石城:-1211,1133:100|红石城古达</t>
+  </si>
+  <si>
+    <t>Vá para o Vazio da Lava Pāhoehoe naquela área estranha ao sul de Fortaleza de Pedra Vermelha. Pode ser um pouco complicado chegar lá.</t>
+  </si>
+  <si>
+    <t>CLUE#[%tagrole:id%][=]风颖#[[yellow:Conheci um comerciante estranho perto de Fortaleza de Pedra Vermelha...]]#通用线索霍翎支线1</t>
+  </si>
+  <si>
+    <t>Sua experiência na Floresta dos Espelhos prova que o cristal que o comerciante vendeu não passava de uma farsa. Localize-o e exija uma explicação! Talvez seja melhor perguntar aos guardas dentro de Fortaleza de Pedra Vermelha sobre o paradeiro dele.</t>
+  </si>
+  <si>
+    <t>0#Retornar a Fortaleza de Pedra Vermelha e entregar o mercador ganancioso#1##沙盒红石城:-2264,-461:0|雄鹰缉拿士兵</t>
+  </si>
+  <si>
+    <t>0#Controlar pelo menos 18 cidades#18
+0#Ocupar Fortaleza de Pedra Vermelha#1
 0#Ocupar Triptych Rock#1</t>
   </si>
   <si>
-    <t>0#Controlar pelo menos 18 cidades#18
-0#Ocupar Camel Bell Bazaar#1
-0#Ocupar Frost Valley#1</t>
-  </si>
-  <si>
-    <t>0#Controlar pelo menos 18 cidades#18
-0#Ocupar Camel Bell Bazaar#1
-0#Ocupar Mireton#1
-0#Ocupar Frost Valley#1</t>
+    <t>0#Esperar sete dias#7
+0#Ir para a mina abandonada em Rocha Chorosa#1##沙盒风哭岩:2953,5651:1200|trigger:野兽血脉主线进入废弃矿洞</t>
+  </si>
+  <si>
+    <t>Vá ao desfiladeiro em Rocha Chorosa e localize uma árvore estranha ao norte do posto avançado de West Crag e, em seguida, relate a Jihan em Fortaleza de Pedra Vermelha.</t>
+  </si>
+  <si>
+    <t>0#Depois de encontrar uma árvore estranha nos cânions de Rocha Chorosa, volte para Fortaleza de Pedra Vermelha e fale com Jihan.#1##沙盒风哭岩:-2876,-6343:0|trigger:猎人帮会主线301</t>
+  </si>
+  <si>
+    <t>Conforme o desertor disse, há uma pedra azul em Rocha Chorosa. Debaixo dela está o tesouro secreto do Velho Mundo - a Armadura Desert Ash.</t>
+  </si>
+  <si>
+    <t>0#Procurar a Armadura de Cinzas do Deserto em Rocha Chorosa#1##沙盒风哭岩:-2455,7313:1000|trigger:灰烬战甲蓝石</t>
+  </si>
+  <si>
+    <t>0#Encontrar a entrada em Rocha Chorosa#1##沙盒风哭岩:-835,9342:200|trigger:提可沁主线101选择
+0#Encontrar as ervas#1</t>
+  </si>
+  <si>
+    <t>Vá para o local onde você encontrou o Pintor Errante em Rocha Chorosa. Procure ao redor e veja se pode ajudar a trazer a filha dele de volta.</t>
+  </si>
+  <si>
+    <t>Você encontrou o comerciante em Rocha Chorosa. Leve-o de volta para Fortaleza de Pedra Vermelha e reivindique sua recompensa.</t>
+  </si>
+  <si>
+    <t>0#Ir para uma vila ao norte do Fortaleza Qebui#1##大雪山:2940,11024:0|trigger:琥珀银松村琥珀家门口</t>
+  </si>
+  <si>
+    <t>0#Ir para o Fortaleza Qebui#1##大雪山:2372,8379:0</t>
+  </si>
+  <si>
+    <t>0#Ajudar o mago em Cidade de Amaranth a encontrar seu vizinho#1##沙盒风哭岩:2446,-1359:3000|紫木镇失踪花妖</t>
+  </si>
+  <si>
+    <t>0#Ir para Cidade de Amaranth em Rocha Chorosa#1##沙盒风哭岩:2327,8447:0|trigger:心灵巫师主线201</t>
+  </si>
+  <si>
+    <t>0#Encontrar seu velho amigo no canto sudeste de Cidade de Amaranth#1##沙盒风哭岩:2327,8447:400|trigger:心灵巫师主线213</t>
+  </si>
+  <si>
+    <t>4#Dê 1000 Utar para Hook Nose no sudoeste de Cidade de Amaranth#1000#金钱#|三石堡腾越1</t>
+  </si>
+  <si>
+    <t>0#Conversar com Tandu em Cidade de Amaranth#1##沙盒风哭岩:2330,8441:100|PLACE:紫木镇</t>
+  </si>
+  <si>
+    <t>0#Esperar informações da Guilda dos Mercadores de Corsac#1
+0#Viajar para Dunestorm#1##大沙漠:-5896,87:0|trigger:沙风镇触发器</t>
+  </si>
+  <si>
+    <t>0#Viajar para o noroeste das Penhascos Umbra para Nagukka#1##沙盒黑崖花卉乡:-13346,2558:0|trigger:那古卡触发器</t>
+  </si>
+  <si>
+    <t>Pouco depois que Ilham partiu, Yaya viajou sozinho para as Penhascos Umbra para encontrá-la.</t>
+  </si>
+  <si>
+    <t>0#Encontrar a entrada nas Penhascos Umbra#1##沙盒黑崖花卉乡:-10670,-74:200|trigger:提可沁主线105选择
+0#Encontrar as ervas#1</t>
+  </si>
+  <si>
+    <t>Você comprou um cristal de um comerciante no Vale de Redstone. Ele disse que poderia transformar uma Dríade na Floresta dos Espelhos de volta à sua forma humana. Você está disposto a testar suas palavras viajando para a &lt;color=red&gt;Floresta dos Espelhos&lt;/color&gt; nas Penhascos Umbra.</t>
+  </si>
+  <si>
+    <t>0#Ir para a Floresta Mirage nas Penhascos Umbra#1##沙盒黑崖花卉乡:-4071,-12176:0|PLACE:林间幻境</t>
+  </si>
+  <si>
+    <t>O comerciante lhe contou o paradeiro de uma Pedra Mítica das Maldições - em algum lugar a oeste das Penhascos Umbra. Você pode precisar perguntar por aí nas Penhascos Umbra para determinar sua localização exata.</t>
+  </si>
+  <si>
+    <t>Khaldun, um homem misterioso de cabelos brancos, lhe fala sobre um mestre arcano chamado Zarathustra. Se ele estiver correto, você encontrará Zarathustra dentro das Penhascos Umbra. A cidade mais próxima no penhasco é um lugar encantador chamado Fleur. Viajar até lá em busca de mais informações seria sábio.</t>
   </si>
 </sst>
 </file>
@@ -3427,8 +3427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G137" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I139" sqref="I139"/>
+    <sheetView tabSelected="1" topLeftCell="H28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3438,6 +3438,7 @@
     <col min="3" max="3" width="62.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="229.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="255.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="167.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3491,7 +3492,7 @@
         <v>13</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>784</v>
+        <v>771</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="148.5">
@@ -3515,7 +3516,7 @@
         <v>16</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>785</v>
+        <v>903</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="135">
@@ -3539,7 +3540,7 @@
         <v>19</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>786</v>
+        <v>772</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="108">
@@ -3563,7 +3564,7 @@
         <v>22</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>787</v>
+        <v>773</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="67.5">
@@ -3587,7 +3588,7 @@
         <v>25</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>788</v>
+        <v>904</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="94.5">
@@ -3611,7 +3612,7 @@
         <v>28</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>789</v>
+        <v>774</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="135">
@@ -3635,7 +3636,7 @@
         <v>32</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>790</v>
+        <v>888</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="351">
@@ -3652,7 +3653,7 @@
         <v>35</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>36</v>
@@ -3664,7 +3665,7 @@
         <v>37</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>791</v>
+        <v>895</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="337.5">
@@ -3681,7 +3682,7 @@
         <v>41</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>775</v>
+        <v>763</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>42</v>
@@ -3693,7 +3694,7 @@
         <v>43</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>792</v>
+        <v>775</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="135">
@@ -3717,7 +3718,7 @@
         <v>47</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>793</v>
+        <v>776</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="121.5">
@@ -3741,7 +3742,7 @@
         <v>51</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>794</v>
+        <v>777</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="135">
@@ -3765,7 +3766,7 @@
         <v>55</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>795</v>
+        <v>778</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="27">
@@ -3789,7 +3790,7 @@
         <v>59</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>796</v>
+        <v>779</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="337.5">
@@ -3806,7 +3807,7 @@
         <v>63</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>776</v>
+        <v>764</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>64</v>
@@ -3818,7 +3819,7 @@
         <v>65</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>797</v>
+        <v>780</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="135">
@@ -3842,7 +3843,7 @@
         <v>69</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>798</v>
+        <v>781</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="162">
@@ -3866,7 +3867,7 @@
         <v>72</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>799</v>
+        <v>905</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="121.5">
@@ -3890,7 +3891,7 @@
         <v>75</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>800</v>
+        <v>782</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="94.5">
@@ -3914,7 +3915,7 @@
         <v>79</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>801</v>
+        <v>783</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="351">
@@ -3931,7 +3932,7 @@
         <v>82</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>777</v>
+        <v>765</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>83</v>
@@ -3943,7 +3944,7 @@
         <v>84</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>802</v>
+        <v>906</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="202.5">
@@ -3967,7 +3968,7 @@
         <v>88</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>803</v>
+        <v>907</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="135">
@@ -3991,7 +3992,7 @@
         <v>92</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>804</v>
+        <v>784</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="229.5">
@@ -4015,7 +4016,7 @@
         <v>96</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>805</v>
+        <v>908</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="351">
@@ -4032,7 +4033,7 @@
         <v>99</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>100</v>
@@ -4044,7 +4045,7 @@
         <v>101</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>806</v>
+        <v>910</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="351">
@@ -4061,7 +4062,7 @@
         <v>99</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>103</v>
@@ -4073,7 +4074,7 @@
         <v>104</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>807</v>
+        <v>785</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="351">
@@ -4090,7 +4091,7 @@
         <v>99</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>108</v>
@@ -4102,7 +4103,7 @@
         <v>109</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>808</v>
+        <v>786</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="351">
@@ -4119,7 +4120,7 @@
         <v>112</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>779</v>
+        <v>767</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>113</v>
@@ -4131,7 +4132,7 @@
         <v>114</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>809</v>
+        <v>787</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="351">
@@ -4148,7 +4149,7 @@
         <v>118</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>119</v>
@@ -4160,7 +4161,7 @@
         <v>120</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>810</v>
+        <v>911</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="81">
@@ -4184,7 +4185,7 @@
         <v>124</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="108">
@@ -4208,7 +4209,7 @@
         <v>127</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>812</v>
+        <v>789</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="81">
@@ -4232,7 +4233,7 @@
         <v>131</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>813</v>
+        <v>790</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="337.5">
@@ -4249,7 +4250,7 @@
         <v>135</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>781</v>
+        <v>769</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>136</v>
@@ -4261,7 +4262,7 @@
         <v>137</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>814</v>
+        <v>889</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="337.5">
@@ -4278,19 +4279,19 @@
         <v>135</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>781</v>
+        <v>769</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>140</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>669</v>
+        <v>896</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>141</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>815</v>
+        <v>897</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="135">
@@ -4308,13 +4309,13 @@
         <v>144</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>145</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>816</v>
+        <v>791</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="40.5">
@@ -4332,13 +4333,13 @@
         <v>148</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>149</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>817</v>
+        <v>792</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="148.5">
@@ -4356,13 +4357,13 @@
         <v>152</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>153</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>818</v>
+        <v>793</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="351">
@@ -4379,19 +4380,19 @@
         <v>156</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>782</v>
+        <v>770</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>158</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>819</v>
+        <v>886</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="351">
@@ -4408,19 +4409,19 @@
         <v>156</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>782</v>
+        <v>770</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>160</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>161</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>820</v>
+        <v>794</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="351">
@@ -4437,19 +4438,19 @@
         <v>156</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>782</v>
+        <v>770</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>164</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>165</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>821</v>
+        <v>795</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="202.5">
@@ -4467,13 +4468,13 @@
         <v>168</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>169</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>822</v>
+        <v>796</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="189">
@@ -4491,13 +4492,13 @@
         <v>173</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>174</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>823</v>
+        <v>797</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="94.5">
@@ -4515,13 +4516,13 @@
         <v>177</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>178</v>
       </c>
       <c r="I42" s="14" t="s">
-        <v>824</v>
+        <v>798</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="121.5">
@@ -4539,13 +4540,13 @@
         <v>181</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>678</v>
+        <v>887</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>182</v>
       </c>
       <c r="I43" s="15" t="s">
-        <v>825</v>
+        <v>799</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="121.5">
@@ -4563,13 +4564,13 @@
         <v>184</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>678</v>
+        <v>887</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>182</v>
       </c>
       <c r="I44" s="15" t="s">
-        <v>825</v>
+        <v>799</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="148.5">
@@ -4587,13 +4588,13 @@
         <v>187</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>188</v>
       </c>
       <c r="I45" s="14" t="s">
-        <v>826</v>
+        <v>800</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="108">
@@ -4611,13 +4612,13 @@
         <v>191</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>192</v>
       </c>
       <c r="I46" s="15" t="s">
-        <v>827</v>
+        <v>801</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="229.5">
@@ -4635,13 +4636,13 @@
         <v>195</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>196</v>
       </c>
       <c r="I47" s="14" t="s">
-        <v>828</v>
+        <v>802</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="81">
@@ -4659,13 +4660,13 @@
         <v>199</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>200</v>
       </c>
       <c r="I48" s="14" t="s">
-        <v>829</v>
+        <v>803</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="94.5">
@@ -4683,13 +4684,13 @@
         <v>203</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>204</v>
       </c>
       <c r="I49" s="14" t="s">
-        <v>830</v>
+        <v>804</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="229.5">
@@ -4707,13 +4708,13 @@
         <v>207</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>208</v>
       </c>
       <c r="I50" s="14" t="s">
-        <v>831</v>
+        <v>805</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="243">
@@ -4731,13 +4732,13 @@
         <v>211</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>212</v>
       </c>
       <c r="I51" s="14" t="s">
-        <v>832</v>
+        <v>806</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="135">
@@ -4755,13 +4756,13 @@
         <v>214</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="H52" s="7" t="s">
         <v>215</v>
       </c>
       <c r="I52" s="14" t="s">
-        <v>833</v>
+        <v>807</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="162">
@@ -4779,13 +4780,13 @@
         <v>218</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="H53" s="7" t="s">
         <v>219</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>834</v>
+        <v>808</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="81">
@@ -4803,13 +4804,13 @@
         <v>222</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="H54" s="7" t="s">
         <v>223</v>
       </c>
       <c r="I54" s="14" t="s">
-        <v>835</v>
+        <v>809</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="40.5">
@@ -4827,13 +4828,13 @@
         <v>226</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="H55" s="7" t="s">
         <v>227</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>831</v>
+        <v>805</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="81">
@@ -4851,13 +4852,13 @@
         <v>230</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="H56" s="7" t="s">
         <v>231</v>
       </c>
       <c r="I56" s="14" t="s">
-        <v>836</v>
+        <v>810</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="148.5">
@@ -4875,13 +4876,13 @@
         <v>234</v>
       </c>
       <c r="G57" s="14" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="H57" s="7" t="s">
         <v>235</v>
       </c>
       <c r="I57" s="14" t="s">
-        <v>837</v>
+        <v>811</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="54">
@@ -4899,13 +4900,13 @@
         <v>238</v>
       </c>
       <c r="G58" s="14" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="H58" s="7" t="s">
         <v>239</v>
       </c>
       <c r="I58" s="14" t="s">
-        <v>838</v>
+        <v>812</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="67.5">
@@ -4923,13 +4924,13 @@
         <v>242</v>
       </c>
       <c r="G59" s="14" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H59" s="7" t="s">
         <v>243</v>
       </c>
       <c r="I59" s="14" t="s">
-        <v>839</v>
+        <v>813</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="54">
@@ -4947,13 +4948,13 @@
         <v>246</v>
       </c>
       <c r="G60" s="14" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="H60" s="7" t="s">
         <v>247</v>
       </c>
       <c r="I60" s="15" t="s">
-        <v>840</v>
+        <v>814</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="81">
@@ -4971,13 +4972,13 @@
         <v>250</v>
       </c>
       <c r="G61" s="14" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="H61" s="7" t="s">
         <v>251</v>
       </c>
       <c r="I61" s="14" t="s">
-        <v>841</v>
+        <v>815</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="108">
@@ -4995,13 +4996,13 @@
         <v>253</v>
       </c>
       <c r="G62" s="14" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="H62" s="8" t="s">
         <v>254</v>
       </c>
       <c r="I62" s="14" t="s">
-        <v>842</v>
+        <v>816</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="135">
@@ -5019,13 +5020,13 @@
         <v>256</v>
       </c>
       <c r="G63" s="14" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="H63" s="8" t="s">
         <v>257</v>
       </c>
       <c r="I63" s="14" t="s">
-        <v>843</v>
+        <v>817</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="108">
@@ -5043,13 +5044,13 @@
         <v>259</v>
       </c>
       <c r="G64" s="14" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="H64" s="8" t="s">
         <v>260</v>
       </c>
       <c r="I64" s="14" t="s">
-        <v>844</v>
+        <v>818</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="108">
@@ -5067,13 +5068,13 @@
         <v>262</v>
       </c>
       <c r="G65" s="14" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="H65" s="8" t="s">
         <v>263</v>
       </c>
       <c r="I65" s="14" t="s">
-        <v>845</v>
+        <v>819</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="108">
@@ -5091,13 +5092,13 @@
         <v>265</v>
       </c>
       <c r="G66" s="14" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="H66" s="8" t="s">
         <v>266</v>
       </c>
       <c r="I66" s="14" t="s">
-        <v>846</v>
+        <v>820</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="94.5">
@@ -5115,13 +5116,13 @@
         <v>268</v>
       </c>
       <c r="G67" s="14" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="H67" s="8" t="s">
         <v>269</v>
       </c>
       <c r="I67" s="14" t="s">
-        <v>847</v>
+        <v>821</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="94.5">
@@ -5139,13 +5140,13 @@
         <v>272</v>
       </c>
       <c r="G68" s="14" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="H68" s="8" t="s">
         <v>273</v>
       </c>
       <c r="I68" s="14" t="s">
-        <v>848</v>
+        <v>822</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="121.5">
@@ -5163,13 +5164,13 @@
         <v>275</v>
       </c>
       <c r="G69" s="14" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="H69" s="8" t="s">
         <v>276</v>
       </c>
       <c r="I69" s="14" t="s">
-        <v>849</v>
+        <v>823</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="148.5">
@@ -5187,13 +5188,13 @@
         <v>278</v>
       </c>
       <c r="G70" s="14" t="s">
-        <v>704</v>
+        <v>890</v>
       </c>
       <c r="H70" s="8" t="s">
         <v>279</v>
       </c>
       <c r="I70" s="14" t="s">
-        <v>850</v>
+        <v>824</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="216">
@@ -5211,13 +5212,13 @@
         <v>281</v>
       </c>
       <c r="G71" s="14" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="H71" s="8" t="s">
         <v>282</v>
       </c>
       <c r="I71" s="14" t="s">
-        <v>851</v>
+        <v>825</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="108">
@@ -5235,13 +5236,13 @@
         <v>284</v>
       </c>
       <c r="G72" s="14" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="H72" s="8" t="s">
         <v>285</v>
       </c>
       <c r="I72" s="14" t="s">
-        <v>852</v>
+        <v>826</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="202.5">
@@ -5259,13 +5260,13 @@
         <v>287</v>
       </c>
       <c r="G73" s="14" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>288</v>
       </c>
       <c r="I73" s="15" t="s">
-        <v>853</v>
+        <v>827</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="148.5">
@@ -5283,13 +5284,13 @@
         <v>290</v>
       </c>
       <c r="G74" s="14" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>291</v>
       </c>
       <c r="I74" s="14" t="s">
-        <v>854</v>
+        <v>828</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="162">
@@ -5307,13 +5308,13 @@
         <v>294</v>
       </c>
       <c r="G75" s="14" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="H75" s="9" t="s">
         <v>295</v>
       </c>
       <c r="I75" s="15" t="s">
-        <v>855</v>
+        <v>829</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="148.5">
@@ -5331,13 +5332,13 @@
         <v>298</v>
       </c>
       <c r="G76" s="14" t="s">
-        <v>710</v>
+        <v>898</v>
       </c>
       <c r="H76" s="9" t="s">
         <v>299</v>
       </c>
       <c r="I76" s="14" t="s">
-        <v>856</v>
+        <v>899</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="108">
@@ -5355,13 +5356,13 @@
         <v>302</v>
       </c>
       <c r="G77" s="14" t="s">
-        <v>711</v>
+        <v>882</v>
       </c>
       <c r="H77" s="9" t="s">
         <v>303</v>
       </c>
       <c r="I77" s="14" t="s">
-        <v>857</v>
+        <v>883</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="135">
@@ -5379,13 +5380,13 @@
         <v>306</v>
       </c>
       <c r="G78" s="14" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="H78" s="9" t="s">
         <v>307</v>
       </c>
       <c r="I78" s="14" t="s">
-        <v>858</v>
+        <v>830</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="121.5">
@@ -5403,13 +5404,13 @@
         <v>310</v>
       </c>
       <c r="G79" s="14" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>311</v>
       </c>
       <c r="I79" s="15" t="s">
-        <v>859</v>
+        <v>831</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="94.5">
@@ -5427,13 +5428,13 @@
         <v>313</v>
       </c>
       <c r="G80" s="14" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>314</v>
       </c>
       <c r="I80" s="15" t="s">
-        <v>860</v>
+        <v>832</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="108">
@@ -5451,13 +5452,13 @@
         <v>316</v>
       </c>
       <c r="G81" s="14" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>317</v>
       </c>
       <c r="I81" s="14" t="s">
-        <v>861</v>
+        <v>833</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="81">
@@ -5475,13 +5476,13 @@
         <v>319</v>
       </c>
       <c r="G82" s="14" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>320</v>
       </c>
       <c r="I82" s="14" t="s">
-        <v>862</v>
+        <v>834</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="108">
@@ -5498,13 +5499,13 @@
         <v>323</v>
       </c>
       <c r="G83" s="14" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>324</v>
       </c>
       <c r="I83" s="14" t="s">
-        <v>863</v>
+        <v>835</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="94.5">
@@ -5522,13 +5523,13 @@
         <v>326</v>
       </c>
       <c r="G84" s="14" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>327</v>
       </c>
       <c r="I84" s="15" t="s">
-        <v>864</v>
+        <v>836</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="81">
@@ -5546,13 +5547,13 @@
         <v>329</v>
       </c>
       <c r="G85" s="14" t="s">
-        <v>719</v>
+        <v>912</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>330</v>
       </c>
       <c r="I85" s="15" t="s">
-        <v>865</v>
+        <v>837</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="148.5">
@@ -5569,13 +5570,13 @@
         <v>332</v>
       </c>
       <c r="G86" s="14" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>333</v>
       </c>
       <c r="I86" s="14" t="s">
-        <v>866</v>
+        <v>838</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="162">
@@ -5593,13 +5594,13 @@
         <v>336</v>
       </c>
       <c r="G87" s="14" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>337</v>
       </c>
       <c r="I87" s="15" t="s">
-        <v>867</v>
+        <v>900</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="162">
@@ -5617,13 +5618,13 @@
         <v>339</v>
       </c>
       <c r="G88" s="14" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>340</v>
       </c>
       <c r="I88" s="15" t="s">
-        <v>868</v>
+        <v>839</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="175.5">
@@ -5641,13 +5642,13 @@
         <v>342</v>
       </c>
       <c r="G89" s="14" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>343</v>
       </c>
       <c r="I89" s="15" t="s">
-        <v>869</v>
+        <v>913</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="162">
@@ -5665,13 +5666,13 @@
         <v>346</v>
       </c>
       <c r="G90" s="14" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>347</v>
       </c>
       <c r="I90" s="15" t="s">
-        <v>870</v>
+        <v>840</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="135">
@@ -5689,13 +5690,13 @@
         <v>350</v>
       </c>
       <c r="G91" s="14" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>351</v>
       </c>
       <c r="I91" s="14" t="s">
-        <v>871</v>
+        <v>841</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="108">
@@ -5713,13 +5714,13 @@
         <v>354</v>
       </c>
       <c r="G92" s="14" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>355</v>
       </c>
       <c r="I92" s="14" t="s">
-        <v>872</v>
+        <v>842</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="270">
@@ -5737,13 +5738,13 @@
         <v>358</v>
       </c>
       <c r="G93" s="15" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>359</v>
       </c>
       <c r="I93" s="14" t="s">
-        <v>873</v>
+        <v>843</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="162">
@@ -5761,13 +5762,13 @@
         <v>361</v>
       </c>
       <c r="G94" s="15" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>359</v>
       </c>
       <c r="I94" s="14" t="s">
-        <v>873</v>
+        <v>843</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="148.5">
@@ -5785,13 +5786,13 @@
         <v>364</v>
       </c>
       <c r="G95" s="14" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>365</v>
       </c>
       <c r="I95" s="14" t="s">
-        <v>874</v>
+        <v>844</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="148.5">
@@ -5809,13 +5810,13 @@
         <v>368</v>
       </c>
       <c r="G96" s="14" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>369</v>
       </c>
       <c r="I96" s="14" t="s">
-        <v>875</v>
+        <v>845</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="67.5">
@@ -5833,13 +5834,13 @@
         <v>372</v>
       </c>
       <c r="G97" s="14" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>373</v>
       </c>
       <c r="I97" s="14" t="s">
-        <v>876</v>
+        <v>846</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="81">
@@ -5857,13 +5858,13 @@
         <v>375</v>
       </c>
       <c r="G98" s="14" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>376</v>
       </c>
       <c r="I98" s="14" t="s">
-        <v>877</v>
+        <v>847</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="108">
@@ -5881,13 +5882,13 @@
         <v>378</v>
       </c>
       <c r="G99" s="14" t="s">
-        <v>733</v>
+        <v>901</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>379</v>
       </c>
       <c r="I99" s="14" t="s">
-        <v>878</v>
+        <v>848</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="162">
@@ -5905,13 +5906,13 @@
         <v>381</v>
       </c>
       <c r="G100" s="14" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>382</v>
       </c>
       <c r="I100" s="14" t="s">
-        <v>879</v>
+        <v>849</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="202.5">
@@ -5928,19 +5929,19 @@
         <v>384</v>
       </c>
       <c r="E101" s="14" t="s">
-        <v>783</v>
+        <v>891</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>385</v>
       </c>
       <c r="G101" s="14" t="s">
-        <v>735</v>
+        <v>914</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>386</v>
       </c>
       <c r="I101" s="14" t="s">
-        <v>880</v>
+        <v>915</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="202.5">
@@ -5958,13 +5959,13 @@
         <v>389</v>
       </c>
       <c r="G102" s="14" t="s">
-        <v>736</v>
+        <v>892</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>390</v>
       </c>
       <c r="I102" s="14" t="s">
-        <v>881</v>
+        <v>850</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="135">
@@ -5982,13 +5983,13 @@
         <v>392</v>
       </c>
       <c r="G103" s="14" t="s">
-        <v>737</v>
+        <v>902</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>393</v>
       </c>
       <c r="I103" s="14" t="s">
-        <v>882</v>
+        <v>893</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="202.5">
@@ -6006,13 +6007,13 @@
         <v>395</v>
       </c>
       <c r="G104" s="14" t="s">
-        <v>738</v>
+        <v>916</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>396</v>
       </c>
       <c r="I104" s="14" t="s">
-        <v>883</v>
+        <v>851</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="222.75" customHeight="1">
@@ -6030,13 +6031,13 @@
         <v>398</v>
       </c>
       <c r="G105" s="14" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>399</v>
       </c>
       <c r="I105" s="14" t="s">
-        <v>884</v>
+        <v>852</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="148.5">
@@ -6054,13 +6055,13 @@
         <v>402</v>
       </c>
       <c r="G106" s="14" t="s">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>403</v>
       </c>
       <c r="I106" s="14" t="s">
-        <v>885</v>
+        <v>853</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="189">
@@ -6078,13 +6079,13 @@
         <v>406</v>
       </c>
       <c r="G107" s="14" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>407</v>
       </c>
       <c r="I107" s="14" t="s">
-        <v>886</v>
+        <v>854</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="81">
@@ -6102,13 +6103,13 @@
         <v>410</v>
       </c>
       <c r="G108" s="14" t="s">
-        <v>742</v>
+        <v>731</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>411</v>
       </c>
       <c r="I108" s="14" t="s">
-        <v>887</v>
+        <v>855</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="148.5">
@@ -6126,13 +6127,13 @@
         <v>415</v>
       </c>
       <c r="G109" s="14" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>411</v>
       </c>
       <c r="I109" s="14" t="s">
-        <v>888</v>
+        <v>856</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="148.5">
@@ -6150,13 +6151,13 @@
         <v>418</v>
       </c>
       <c r="G110" s="14" t="s">
-        <v>744</v>
+        <v>733</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>419</v>
       </c>
       <c r="I110" s="14" t="s">
-        <v>889</v>
+        <v>857</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="148.5">
@@ -6174,13 +6175,13 @@
         <v>423</v>
       </c>
       <c r="G111" s="14" t="s">
-        <v>745</v>
+        <v>734</v>
       </c>
       <c r="H111" s="5" t="s">
         <v>424</v>
       </c>
       <c r="I111" s="14" t="s">
-        <v>890</v>
+        <v>858</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="162">
@@ -6198,13 +6199,13 @@
         <v>428</v>
       </c>
       <c r="G112" s="14" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
       <c r="H112" s="5" t="s">
         <v>429</v>
       </c>
       <c r="I112" s="14" t="s">
-        <v>891</v>
+        <v>859</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="108">
@@ -6222,13 +6223,13 @@
         <v>432</v>
       </c>
       <c r="G113" s="14" t="s">
-        <v>747</v>
+        <v>736</v>
       </c>
       <c r="H113" s="5" t="s">
         <v>433</v>
       </c>
       <c r="I113" s="14" t="s">
-        <v>892</v>
+        <v>860</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="135">
@@ -6246,13 +6247,13 @@
         <v>436</v>
       </c>
       <c r="G114" s="14" t="s">
-        <v>748</v>
+        <v>737</v>
       </c>
       <c r="H114" s="5" t="s">
         <v>437</v>
       </c>
       <c r="I114" s="14" t="s">
-        <v>893</v>
+        <v>861</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="148.5">
@@ -6270,13 +6271,13 @@
         <v>441</v>
       </c>
       <c r="G115" s="14" t="s">
-        <v>749</v>
+        <v>738</v>
       </c>
       <c r="H115" s="10" t="s">
         <v>442</v>
       </c>
       <c r="I115" s="14" t="s">
-        <v>894</v>
+        <v>862</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="94.5">
@@ -6294,13 +6295,13 @@
         <v>445</v>
       </c>
       <c r="G116" s="15" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="H116" s="10" t="s">
         <v>446</v>
       </c>
       <c r="I116" s="14" t="s">
-        <v>895</v>
+        <v>863</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="216">
@@ -6318,13 +6319,13 @@
         <v>449</v>
       </c>
       <c r="G117" s="15" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="H117" s="10" t="s">
         <v>450</v>
       </c>
       <c r="I117" s="14" t="s">
-        <v>896</v>
+        <v>864</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="202.5">
@@ -6342,13 +6343,13 @@
         <v>454</v>
       </c>
       <c r="G118" s="14" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="H118" s="11" t="s">
         <v>455</v>
       </c>
       <c r="I118" s="14" t="s">
-        <v>897</v>
+        <v>865</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="94.5">
@@ -6366,13 +6367,13 @@
         <v>457</v>
       </c>
       <c r="G119" s="14" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="H119" s="11" t="s">
         <v>458</v>
       </c>
       <c r="I119" s="14" t="s">
-        <v>898</v>
+        <v>866</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="135">
@@ -6390,13 +6391,13 @@
         <v>461</v>
       </c>
       <c r="G120" s="15" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="H120" s="11" t="s">
         <v>433</v>
       </c>
       <c r="I120" s="14" t="s">
-        <v>892</v>
+        <v>860</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="175.5">
@@ -6414,13 +6415,13 @@
         <v>464</v>
       </c>
       <c r="G121" s="14" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="H121" s="11" t="s">
         <v>465</v>
       </c>
       <c r="I121" s="14" t="s">
-        <v>899</v>
+        <v>867</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="94.5">
@@ -6438,13 +6439,13 @@
         <v>468</v>
       </c>
       <c r="G122" s="15" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="H122" s="5" t="s">
         <v>469</v>
       </c>
       <c r="I122" s="14" t="s">
-        <v>900</v>
+        <v>868</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="121.5">
@@ -6462,13 +6463,13 @@
         <v>471</v>
       </c>
       <c r="G123" s="15" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="H123" s="5" t="s">
         <v>472</v>
       </c>
       <c r="I123" s="14" t="s">
-        <v>901</v>
+        <v>869</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="189">
@@ -6486,13 +6487,13 @@
         <v>475</v>
       </c>
       <c r="G124" s="14" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="H124" s="5" t="s">
         <v>476</v>
       </c>
       <c r="I124" s="14" t="s">
-        <v>902</v>
+        <v>870</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="148.5">
@@ -6510,13 +6511,13 @@
         <v>479</v>
       </c>
       <c r="G125" s="14" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="H125" s="5" t="s">
         <v>480</v>
       </c>
       <c r="I125" s="14" t="s">
-        <v>903</v>
+        <v>871</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="324">
@@ -6534,13 +6535,13 @@
         <v>483</v>
       </c>
       <c r="G126" s="15" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="H126" s="5" t="s">
         <v>484</v>
       </c>
       <c r="I126" s="14" t="s">
-        <v>904</v>
+        <v>872</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="270">
@@ -6558,13 +6559,13 @@
         <v>487</v>
       </c>
       <c r="G127" s="14" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="H127" s="5" t="s">
         <v>488</v>
       </c>
       <c r="I127" s="14" t="s">
-        <v>905</v>
+        <v>873</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="135">
@@ -6582,13 +6583,13 @@
         <v>491</v>
       </c>
       <c r="G128" s="14" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
       <c r="H128" s="5" t="s">
         <v>492</v>
       </c>
       <c r="I128" s="14" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="283.5">
@@ -6606,13 +6607,13 @@
         <v>496</v>
       </c>
       <c r="G129" s="14" t="s">
-        <v>763</v>
+        <v>917</v>
       </c>
       <c r="H129" s="10" t="s">
         <v>497</v>
       </c>
       <c r="I129" s="14" t="s">
-        <v>907</v>
+        <v>874</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="175.5">
@@ -6630,13 +6631,13 @@
         <v>500</v>
       </c>
       <c r="G130" s="14" t="s">
-        <v>764</v>
+        <v>752</v>
       </c>
       <c r="H130" s="10" t="s">
         <v>501</v>
       </c>
       <c r="I130" s="14" t="s">
-        <v>908</v>
+        <v>875</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="175.5">
@@ -6654,13 +6655,13 @@
         <v>504</v>
       </c>
       <c r="G131" s="14" t="s">
-        <v>765</v>
+        <v>753</v>
       </c>
       <c r="H131" s="10" t="s">
         <v>505</v>
       </c>
       <c r="I131" s="14" t="s">
-        <v>909</v>
+        <v>876</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="148.5">
@@ -6678,13 +6679,13 @@
         <v>508</v>
       </c>
       <c r="G132" s="14" t="s">
-        <v>766</v>
+        <v>754</v>
       </c>
       <c r="H132" s="10" t="s">
         <v>509</v>
       </c>
       <c r="I132" s="14" t="s">
-        <v>910</v>
+        <v>877</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="135">
@@ -6702,13 +6703,13 @@
         <v>513</v>
       </c>
       <c r="G133" s="14" t="s">
-        <v>767</v>
+        <v>755</v>
       </c>
       <c r="H133" s="10" t="s">
         <v>514</v>
       </c>
       <c r="I133" s="14" t="s">
-        <v>911</v>
+        <v>878</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="108">
@@ -6726,13 +6727,13 @@
         <v>517</v>
       </c>
       <c r="G134" s="14" t="s">
-        <v>768</v>
+        <v>756</v>
       </c>
       <c r="H134" s="10" t="s">
         <v>518</v>
       </c>
       <c r="I134" s="14" t="s">
-        <v>912</v>
+        <v>881</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="148.5">
@@ -6750,13 +6751,13 @@
         <v>522</v>
       </c>
       <c r="G135" s="14" t="s">
-        <v>769</v>
+        <v>757</v>
       </c>
       <c r="H135" s="10" t="s">
         <v>523</v>
       </c>
       <c r="I135" s="15" t="s">
-        <v>913</v>
+        <v>879</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="94.5">
@@ -6774,13 +6775,13 @@
         <v>525</v>
       </c>
       <c r="G136" s="14" t="s">
-        <v>770</v>
+        <v>758</v>
       </c>
       <c r="H136" s="8" t="s">
         <v>526</v>
       </c>
       <c r="I136" s="14" t="s">
-        <v>914</v>
+        <v>880</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="202.5">
@@ -6798,13 +6799,13 @@
         <v>528</v>
       </c>
       <c r="G137" s="14" t="s">
-        <v>771</v>
+        <v>759</v>
       </c>
       <c r="H137" s="8" t="s">
         <v>529</v>
       </c>
       <c r="I137" s="15" t="s">
-        <v>915</v>
+        <v>894</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="202.5">
@@ -6822,13 +6823,13 @@
         <v>531</v>
       </c>
       <c r="G138" s="14" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
       <c r="H138" s="8" t="s">
         <v>532</v>
       </c>
       <c r="I138" s="15" t="s">
-        <v>916</v>
+        <v>884</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="229.5">
@@ -6846,13 +6847,13 @@
         <v>534</v>
       </c>
       <c r="G139" s="14" t="s">
-        <v>773</v>
+        <v>761</v>
       </c>
       <c r="H139" s="8" t="s">
         <v>535</v>
       </c>
       <c r="I139" s="15" t="s">
-        <v>917</v>
+        <v>885</v>
       </c>
     </row>
   </sheetData>
